--- a/biology/Zoologie/Eumorpha_neuburgeri/Eumorpha_neuburgeri.xlsx
+++ b/biology/Zoologie/Eumorpha_neuburgeri/Eumorpha_neuburgeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumorpha neuburgeri est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Philampelini et du genre Eumorpha.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' envergure varie de 98 à 106 mm. La marge externe de l'aile antérieure est légèrement crénelée. La face dorsale de l'aile antérieure ressemble à celles de  Eumorpha anchemolus et de Eumorpha triangulum mais se distingue des deux par une bande abdominale dorsale plus-ou-moins parallèle et grossière.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre en Argentine et en Bolivie.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de fin novembre à début décembre en Argentine.
 </t>
@@ -604,11 +622,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eumorpha  neuburgeri a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903, sous le nom initial de Pholus neuburgeri[1].
-Synonymie
-Pholus neuburgeri Rothschild &amp; Jordan, 1903 Protonyme.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eumorpha  neuburgeri a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903, sous le nom initial de Pholus neuburgeri.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eumorpha_neuburgeri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha_neuburgeri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pholus neuburgeri Rothschild &amp; Jordan, 1903 Protonyme.</t>
         </is>
       </c>
     </row>
